--- a/ACM1501账单.xlsx
+++ b/ACM1501账单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>女生节礼物*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球杆损坏补偿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李培昊、宋楚军垫付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,36 +134,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,33 +188,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="2" builtinId="22"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="注释" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -205,7 +356,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -460,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -473,209 +624,251 @@
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="5"/>
     <col min="8" max="8" width="8.88671875" style="7"/>
+    <col min="9" max="9" width="32.5546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2">
+      <c r="I1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>2017</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>43381</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>165.1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="9">
         <f>SUM(F2)</f>
         <v>165.1</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="7">
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10">
         <f>SUM(G2)</f>
         <v>165.1</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>2017</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>43458</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>-118.92</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="9">
         <f>SUM(F4)</f>
         <v>-118.92</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H5" s="7">
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
         <f>SUM(G4,H3)</f>
         <v>46.179999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>2018</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1000</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="9">
         <f>SUM(F6)</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="7">
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10">
         <f>SUM(G6,H5)</f>
         <v>1046.18</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>2018</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>43166</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>-306.92</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="9">
         <f>SUM(F8)</f>
         <v>-306.92</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="7">
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10">
         <f>SUM(G8,H7)</f>
         <v>739.26</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <v>2018</v>
       </c>
       <c r="C10" s="4">
         <v>43190</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>-988</v>
       </c>
       <c r="G10" s="6">
-        <f>SUM(F10,F11,F12,F13)</f>
-        <v>-1655.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+        <f>SUM(F10,F11,F12,F13,F14)</f>
+        <v>-1698.5</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>-503.5</v>
       </c>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>-100</v>
       </c>
       <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>-64</v>
       </c>
       <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="7">
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-43</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="9"/>
+      <c r="H15" s="10">
         <f>SUM(G10,H9)</f>
-        <v>-916.24</v>
-      </c>
-      <c r="J14">
-        <f>H14/18</f>
-        <v>-50.902222222222221</v>
+        <v>-959.24</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ACM1501账单.xlsx
+++ b/ACM1501账单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>李培昊、宋楚军垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班费收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰趴班费*18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡学仕垫付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,25 +251,22 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -269,74 +278,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -356,7 +297,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -611,23 +552,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="9" max="9" width="32.5546875" style="8" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="32.5546875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -643,17 +587,17 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>2017</v>
       </c>
@@ -666,22 +610,18 @@
       <c r="F2" s="1">
         <v>165.1</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="3">
         <f>SUM(F2)</f>
         <v>165.1</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="9"/>
-      <c r="H3" s="10">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
         <f>SUM(G2)</f>
         <v>165.1</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2017</v>
       </c>
@@ -697,22 +637,18 @@
       <c r="F4" s="1">
         <v>-118.92</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="3">
         <f>SUM(F4)</f>
         <v>-118.92</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="9"/>
-      <c r="H5" s="10">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
         <f>SUM(G4,H3)</f>
         <v>46.179999999999993</v>
       </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2018</v>
       </c>
@@ -728,22 +664,18 @@
       <c r="F6" s="1">
         <v>1000</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="3">
         <f>SUM(F6)</f>
         <v>1000</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="9"/>
-      <c r="H7" s="10">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
         <f>SUM(G6,H5)</f>
         <v>1046.18</v>
       </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2018</v>
       </c>
@@ -759,29 +691,25 @@
       <c r="F8" s="1">
         <v>-306.92</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="3">
         <f>SUM(F8)</f>
         <v>-306.92</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="9"/>
-      <c r="H9" s="10">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="4">
         <f>SUM(G8,H7)</f>
         <v>739.26</v>
       </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>2018</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="8">
         <v>43190</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -794,13 +722,11 @@
         <f>SUM(F10,F11,F12,F13,F14)</f>
         <v>-1698.5</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,13 +734,11 @@
         <v>-503.5</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
@@ -822,13 +746,11 @@
         <v>-100</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
@@ -836,13 +758,11 @@
         <v>-64</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
@@ -850,17 +770,44 @@
         <v>-43</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="9"/>
-      <c r="H15" s="10">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
         <f>SUM(G10,H9)</f>
         <v>-959.24</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>900</v>
+      </c>
+      <c r="G16" s="3">
+        <f>F16</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="4">
+        <f>SUM(H15,G16)</f>
+        <v>-59.240000000000009</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ACM1501账单.xlsx
+++ b/ACM1501账单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,7 +121,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中秋节月饼礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼礼盒装*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月饼礼包装*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品袋*23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>胡学仕垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡学仕垫付59.24，李培昊垫付267.66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -230,6 +250,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -243,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +324,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -278,6 +344,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,7 +431,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -552,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -801,21 +935,82 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H17" s="4">
         <f>SUM(H15,G16)</f>
         <v>-59.240000000000009</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1">
+        <f>-39.9*3</f>
+        <v>-119.69999999999999</v>
+      </c>
+      <c r="G18" s="9">
+        <f>F18+F19+F20</f>
+        <v>-267.65999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1">
+        <f>-68*2</f>
+        <v>-136</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1">
+        <f>-0.52*23</f>
+        <v>-11.96</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="4">
+        <f>H17+G18</f>
+        <v>-326.89999999999998</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="G10:G14"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="B10:B14"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ACM1501账单.xlsx
+++ b/ACM1501账单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,38 @@
   </si>
   <si>
     <t>胡学仕垫付59.24，李培昊垫付267.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优良学分班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联谊轰趴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊班级费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16级ACM班垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班费收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰趴班费*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班费欠16人640元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,6 +347,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyAlignment="1">
@@ -344,74 +379,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -431,7 +398,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -686,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -837,13 +804,13 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>2018</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>43190</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -852,58 +819,58 @@
       <c r="F10" s="1">
         <v>-988</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <f>SUM(F10,F11,F12,F13,F14)</f>
         <v>-1698.5</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1">
         <v>-503.5</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1">
         <v>-100</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1">
         <v>-64</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="1">
         <v>-43</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H15" s="4">
@@ -945,13 +912,13 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C18" s="7">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43367</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -961,15 +928,15 @@
         <f>-39.9*3</f>
         <v>-119.69999999999999</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <f>F18+F19+F20</f>
         <v>-267.65999999999997</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1" t="s">
         <v>26</v>
       </c>
@@ -977,12 +944,12 @@
         <f>-68*2</f>
         <v>-136</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
@@ -990,7 +957,7 @@
         <f>-0.52*23</f>
         <v>-11.96</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H21" s="4">
@@ -999,6 +966,94 @@
       </c>
       <c r="I21" s="5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="6">
+        <v>43454</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
+        <f>F22</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="4">
+        <f>H21+G22</f>
+        <v>73.100000000000023</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43464</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1827.73</v>
+      </c>
+      <c r="G24" s="3">
+        <f>F24</f>
+        <v>-1827.73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="4">
+        <f>H23+G24</f>
+        <v>-1754.63</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C26" s="6">
+        <v>43465</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1">
+        <f>114.3*16</f>
+        <v>1828.8</v>
+      </c>
+      <c r="G26" s="3">
+        <f>F26</f>
+        <v>1828.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="4">
+        <f>H25+G26</f>
+        <v>74.169999999999845</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ACM1501账单.xlsx
+++ b/ACM1501账单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优良学分班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +170,22 @@
   </si>
   <si>
     <t>班费欠16人640元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优良学风班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,6 +391,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -398,7 +478,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -653,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -976,10 +1056,10 @@
         <v>43454</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F22" s="1">
         <v>400</v>
@@ -1003,10 +1083,10 @@
         <v>43464</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F24" s="1">
         <v>-1827.73</v>
@@ -1022,7 +1102,7 @@
         <v>-1754.63</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1033,10 +1113,10 @@
         <v>43465</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F26" s="1">
         <f>114.3*16</f>
@@ -1053,7 +1133,36 @@
         <v>74.169999999999845</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="4">
+        <f>SUM(H27,G28)</f>
+        <v>1074.1699999999998</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
